--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/CONNECTICUT_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/CONNECTICUT_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1016"/>
+  <dimension ref="A1:D1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C18">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C25">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -961,7 +961,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C45">
@@ -1039,7 +1039,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C51">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C72">
@@ -1522,7 +1522,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C87">
@@ -1548,7 +1548,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C110">
@@ -1870,12 +1870,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C113">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C115">
@@ -1953,7 +1953,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C119">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C125">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C128">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C132">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C136">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C144">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C150">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C152">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C166">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C171">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C180">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C185">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C187">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C198">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C206">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C209">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C213">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C214">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C217">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C223">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C227">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C231">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C238">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C241">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C263">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C264">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C274">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C278">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C286">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C292">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C301">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C308">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C314">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C317">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C322">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C323">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C327">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C337">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C339">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C347">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C351">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C355">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C358">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C371">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C385">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C423">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C440">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C450">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C455">
@@ -6442,7 +6442,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C462">
@@ -6486,7 +6486,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C465">
@@ -6665,7 +6665,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C478">
@@ -6743,7 +6743,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C484">
@@ -6769,7 +6769,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C486">
@@ -6795,7 +6795,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C488">
@@ -6808,7 +6808,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C489">
@@ -6821,7 +6821,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C490">
@@ -6834,7 +6834,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C491">
@@ -6847,7 +6847,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C492">
@@ -6860,7 +6860,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C493">
@@ -6886,7 +6886,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C495">
@@ -6925,7 +6925,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C498">
@@ -6938,7 +6938,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C499">
@@ -6951,7 +6951,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C500">
@@ -6964,7 +6964,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C501">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C503">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C512">
@@ -7185,7 +7185,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C518">
@@ -7393,7 +7393,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C534">
@@ -7640,7 +7640,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C553">
@@ -7653,7 +7653,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C554">
@@ -7809,7 +7809,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C566">
@@ -7822,7 +7822,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C567">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C578">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C581">
@@ -8303,7 +8303,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C604">
@@ -8355,7 +8355,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C608">
@@ -8368,7 +8368,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C609">
@@ -8394,7 +8394,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C611">
@@ -8407,7 +8407,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C612">
@@ -8420,7 +8420,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C613">
@@ -8446,7 +8446,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C615">
@@ -8459,7 +8459,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C616">
@@ -8472,7 +8472,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C617">
@@ -8498,7 +8498,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C619">
@@ -8511,7 +8511,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C620">
@@ -8550,7 +8550,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C623">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C645">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C652">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C661">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C665">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C679">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C682">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C683">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C686">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C696">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C706">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C715">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C733">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C739">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C746">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C751">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C754">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C759">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C772">
@@ -10744,7 +10744,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C791">
@@ -10783,7 +10783,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C794">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C795">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -11014,7 +11014,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C811">
@@ -11053,7 +11053,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C814">
@@ -11092,7 +11092,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C817">
@@ -11310,7 +11310,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C833">
@@ -11580,7 +11580,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C853">
@@ -11663,7 +11663,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C859">
@@ -11741,7 +11741,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C865">
@@ -11793,7 +11793,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C869">
@@ -11832,7 +11832,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C872">
@@ -11845,7 +11845,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C873">
@@ -11884,7 +11884,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C876">
@@ -11949,7 +11949,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C881">
@@ -12040,7 +12040,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C888">
@@ -12079,7 +12079,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C891">
@@ -12235,7 +12235,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C903">
@@ -12305,7 +12305,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C908">
@@ -12409,7 +12409,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C916">
@@ -12448,7 +12448,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C919">
@@ -12474,7 +12474,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C921">
@@ -12604,7 +12604,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C931">
@@ -12734,7 +12734,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C941">
@@ -12747,7 +12747,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C942">
@@ -12799,7 +12799,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C946">
@@ -12812,7 +12812,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C947">
@@ -12890,7 +12890,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C953">
@@ -12955,7 +12955,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C958">
@@ -13072,7 +13072,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C967">
@@ -13111,7 +13111,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C970">
@@ -13150,7 +13150,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C973">
@@ -13163,7 +13163,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C974">
@@ -13345,7 +13345,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C988">
@@ -13423,7 +13423,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C994">
@@ -13550,7 +13550,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1003">
@@ -13589,7 +13589,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1006">
@@ -13649,41 +13649,6 @@
       </c>
       <c r="D1010">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
